--- a/Deberes/Examen_IIB/empresas_final/empresas.xlsx
+++ b/Deberes/Examen_IIB/empresas_final/empresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad_tp\OneDrive\Documentos\GitHub\py-tupiza-peralta-alejandro-daniel\Deberes\Examen_IIB\empresas_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_FFC65FC0F6B92AF422170B3773F8018E7CB4E705" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{27E7779B-31D0-48FC-B915-DFEB3043E22E}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_FFC65FC023492FC89A170B658BA79867736CD751" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C915C7A7-49BA-4A06-9183-F64D7F48FFB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="180">
   <si>
     <t>Codigo</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Telefono</t>
+  </si>
+  <si>
+    <t>Latitud direccion</t>
+  </si>
+  <si>
+    <t>Longitud direccion</t>
   </si>
   <si>
     <t>IMPORTADORA LAVACOR CIA. LTDA</t>
@@ -381,6 +387,183 @@
   </si>
   <si>
     <t>022 334 673</t>
+  </si>
+  <si>
+    <t>-3.983822</t>
+  </si>
+  <si>
+    <t>-0.946716</t>
+  </si>
+  <si>
+    <t>-0.259688</t>
+  </si>
+  <si>
+    <t>-2.135178</t>
+  </si>
+  <si>
+    <t>-2.186876</t>
+  </si>
+  <si>
+    <t>-2.200553</t>
+  </si>
+  <si>
+    <t>-0.183597</t>
+  </si>
+  <si>
+    <t>-0.101247</t>
+  </si>
+  <si>
+    <t>-0.134944</t>
+  </si>
+  <si>
+    <t>-0.099632</t>
+  </si>
+  <si>
+    <t>-0.206460</t>
+  </si>
+  <si>
+    <t>-1.035525</t>
+  </si>
+  <si>
+    <t>-0.164774</t>
+  </si>
+  <si>
+    <t>-1.653530</t>
+  </si>
+  <si>
+    <t>-1.653487</t>
+  </si>
+  <si>
+    <t>-0.194034</t>
+  </si>
+  <si>
+    <t>-0.126546</t>
+  </si>
+  <si>
+    <t>-0.139089</t>
+  </si>
+  <si>
+    <t>-0.216855</t>
+  </si>
+  <si>
+    <t>-0.237047</t>
+  </si>
+  <si>
+    <t>0.342826</t>
+  </si>
+  <si>
+    <t>0.328318</t>
+  </si>
+  <si>
+    <t>-0.129179</t>
+  </si>
+  <si>
+    <t>-0.310616</t>
+  </si>
+  <si>
+    <t>-0.065822</t>
+  </si>
+  <si>
+    <t>-0.211076</t>
+  </si>
+  <si>
+    <t>40.489523</t>
+  </si>
+  <si>
+    <t>-0.097950</t>
+  </si>
+  <si>
+    <t>-0.297207</t>
+  </si>
+  <si>
+    <t>-0.236466</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79.207831</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -80.722219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79.189111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79.903493</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79.893622</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79.900288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.481303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.479305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.481752</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.466817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.480151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -80.467248</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.467792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.666495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.491601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.480757</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.493190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.488372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.485869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.122625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79.472235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.496872</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.546209</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.462245</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.509862</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.680884</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.435439</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.461294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78.530079</t>
   </si>
 </sst>
 </file>
@@ -782,11 +965,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -795,9 +976,11 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,8 +996,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -822,19 +1011,25 @@
         <v>5001</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -842,19 +1037,25 @@
         <v>5026</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -862,19 +1063,25 @@
         <v>5030</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +1089,25 @@
         <v>5095</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -902,19 +1115,25 @@
         <v>5225</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,19 +1141,25 @@
         <v>2045</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -942,19 +1167,25 @@
         <v>5071</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -962,19 +1193,25 @@
         <v>5072</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -982,19 +1219,25 @@
         <v>5073</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1002,19 +1245,25 @@
         <v>5074</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1022,19 +1271,25 @@
         <v>5075</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1042,19 +1297,25 @@
         <v>5076</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1062,19 +1323,25 @@
         <v>5078</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1082,19 +1349,25 @@
         <v>5079</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1102,19 +1375,25 @@
         <v>5080</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1122,19 +1401,25 @@
         <v>5084</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1142,19 +1427,25 @@
         <v>5086</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1162,19 +1453,25 @@
         <v>5087</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1182,19 +1479,25 @@
         <v>5088</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1202,19 +1505,25 @@
         <v>5089</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1222,19 +1531,25 @@
         <v>5090</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,19 +1557,25 @@
         <v>5093</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1262,19 +1583,25 @@
         <v>5096</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1282,19 +1609,25 @@
         <v>5097</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1302,19 +1635,25 @@
         <v>5098</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1322,19 +1661,25 @@
         <v>5103</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1342,19 +1687,25 @@
         <v>5105</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1362,19 +1713,25 @@
         <v>5107</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1382,19 +1739,25 @@
         <v>5109</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1402,19 +1765,25 @@
         <v>5112</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1422,19 +1791,25 @@
         <v>5118</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1442,19 +1817,25 @@
         <v>5121</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1462,16 +1843,22 @@
         <v>5123</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
